--- a/Code/Results/Cases/Case_6_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_49/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.756361876048175</v>
+        <v>1.026228309218169</v>
       </c>
       <c r="C2">
-        <v>0.6500816023991263</v>
+        <v>0.1349287273555859</v>
       </c>
       <c r="D2">
-        <v>0.07469167771161977</v>
+        <v>0.2052916441622159</v>
       </c>
       <c r="E2">
-        <v>0.1317262906059362</v>
+        <v>0.171096689967726</v>
       </c>
       <c r="F2">
-        <v>1.888151955323835</v>
+        <v>0.8356207409359442</v>
       </c>
       <c r="G2">
-        <v>0.0008032535073850052</v>
+        <v>0.0008127178987711344</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2151103287963849</v>
+        <v>0.1866890368279144</v>
       </c>
       <c r="K2">
-        <v>0.7657741479802525</v>
+        <v>1.065403902544858</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8392163144318552</v>
+        <v>0.8200503472878509</v>
       </c>
       <c r="O2">
-        <v>1.205705131617108</v>
+        <v>1.882301883842302</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.391563240544258</v>
+        <v>0.8917716953514798</v>
       </c>
       <c r="C3">
-        <v>0.5616890452861583</v>
+        <v>0.1184310351917759</v>
       </c>
       <c r="D3">
-        <v>0.06592855906585271</v>
+        <v>0.1809945603024801</v>
       </c>
       <c r="E3">
-        <v>0.1170398311732157</v>
+        <v>0.1521336398823152</v>
       </c>
       <c r="F3">
-        <v>1.739934750498989</v>
+        <v>0.8003580603279943</v>
       </c>
       <c r="G3">
-        <v>0.0008107456730322951</v>
+        <v>0.0008164995841046995</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1916652970506476</v>
+        <v>0.1672047506771932</v>
       </c>
       <c r="K3">
-        <v>0.6635319800094734</v>
+        <v>0.9253585034612968</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.891833512717767</v>
+        <v>0.8619628278471088</v>
       </c>
       <c r="O3">
-        <v>1.116077218113375</v>
+        <v>1.841791602697441</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.170664844879752</v>
+        <v>0.8095244118152038</v>
       </c>
       <c r="C4">
-        <v>0.5081006104298638</v>
+        <v>0.1082993786956195</v>
       </c>
       <c r="D4">
-        <v>0.06060125511933023</v>
+        <v>0.1662012122163361</v>
       </c>
       <c r="E4">
-        <v>0.1082093895443634</v>
+        <v>0.1406496429058812</v>
       </c>
       <c r="F4">
-        <v>1.653059759217513</v>
+        <v>0.780125978304504</v>
       </c>
       <c r="G4">
-        <v>0.0008154737307692366</v>
+        <v>0.0008189001650457425</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1776557173074664</v>
+        <v>0.1554655352528869</v>
       </c>
       <c r="K4">
-        <v>0.6015999929977269</v>
+        <v>0.8396026152601905</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.925742206267266</v>
+        <v>0.8887967333174278</v>
       </c>
       <c r="O4">
-        <v>1.063864880796146</v>
+        <v>1.820484733703609</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.081321886024341</v>
+        <v>0.7760724153633305</v>
       </c>
       <c r="C5">
-        <v>0.4864097904031155</v>
+        <v>0.1041688200246824</v>
       </c>
       <c r="D5">
-        <v>0.05844222112109776</v>
+        <v>0.1602014225325235</v>
       </c>
       <c r="E5">
-        <v>0.1046531653573055</v>
+        <v>0.136006693233071</v>
       </c>
       <c r="F5">
-        <v>1.618607873880677</v>
+        <v>0.7722209925715831</v>
       </c>
       <c r="G5">
-        <v>0.0008174338782956542</v>
+        <v>0.0008198985179149402</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1720338991962223</v>
+        <v>0.1507338067487325</v>
       </c>
       <c r="K5">
-        <v>0.5765459850878685</v>
+        <v>0.8047015475392811</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9399462123143252</v>
+        <v>0.9000017772792934</v>
       </c>
       <c r="O5">
-        <v>1.043237015361932</v>
+        <v>1.812658858493251</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.06652448916094</v>
+        <v>0.7705212503247765</v>
       </c>
       <c r="C6">
-        <v>0.4828162165867127</v>
+        <v>0.1034827965175964</v>
       </c>
       <c r="D6">
-        <v>0.05808439104294649</v>
+        <v>0.1592068099069905</v>
       </c>
       <c r="E6">
-        <v>0.1040650757288866</v>
+        <v>0.1352378711912152</v>
       </c>
       <c r="F6">
-        <v>1.612942109067063</v>
+        <v>0.770928409989402</v>
       </c>
       <c r="G6">
-        <v>0.0008177614137721498</v>
+        <v>0.0008200655168503177</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1711053949306134</v>
+        <v>0.1499511321695692</v>
       </c>
       <c r="K6">
-        <v>0.5723960884747115</v>
+        <v>0.7989086034818627</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9423276208973519</v>
+        <v>0.9018784912129987</v>
       </c>
       <c r="O6">
-        <v>1.0398493125481</v>
+        <v>1.81140999611516</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.169457330723162</v>
+        <v>0.8090730227939957</v>
       </c>
       <c r="C7">
-        <v>0.5078075176538448</v>
+        <v>0.1082436816199674</v>
       </c>
       <c r="D7">
-        <v>0.0605720914213137</v>
+        <v>0.166120184741132</v>
       </c>
       <c r="E7">
-        <v>0.1081612640543348</v>
+        <v>0.1405868812934514</v>
       </c>
       <c r="F7">
-        <v>1.652591392884887</v>
+        <v>0.7800180153269451</v>
       </c>
       <c r="G7">
-        <v>0.0008155000290401837</v>
+        <v>0.0008189135473264386</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1775795588416784</v>
+        <v>0.1554015160755</v>
       </c>
       <c r="K7">
-        <v>0.6012613981151276</v>
+        <v>0.8391317615135279</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9259322250121436</v>
+        <v>0.8889467635034229</v>
       </c>
       <c r="O7">
-        <v>1.063584133902296</v>
+        <v>1.820375773332501</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.629874108505987</v>
+        <v>0.9797950686881052</v>
       </c>
       <c r="C8">
-        <v>0.6194457608282278</v>
+        <v>0.1292399138705917</v>
       </c>
       <c r="D8">
-        <v>0.07165814310370422</v>
+        <v>0.1968862644686027</v>
       </c>
       <c r="E8">
-        <v>0.1266205568235144</v>
+        <v>0.1645231625515891</v>
       </c>
       <c r="F8">
-        <v>1.836133860350586</v>
+        <v>0.8231569884474084</v>
       </c>
       <c r="G8">
-        <v>0.0008058110733670649</v>
+        <v>0.0008140057110704534</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.206940264822606</v>
+        <v>0.1799216688447984</v>
       </c>
       <c r="K8">
-        <v>0.7303276025306715</v>
+        <v>1.01705969398509</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8570158157618941</v>
+        <v>0.8342695962807256</v>
       </c>
       <c r="O8">
-        <v>1.174178656804145</v>
+        <v>1.867568991585216</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.562345783266551</v>
+        <v>1.31769445805719</v>
       </c>
       <c r="C9">
-        <v>0.8450704552703883</v>
+        <v>0.1704632758911373</v>
       </c>
       <c r="D9">
-        <v>0.09389662822840705</v>
+        <v>0.2583502540343403</v>
       </c>
       <c r="E9">
-        <v>0.1645425244878282</v>
+        <v>0.2128818003205808</v>
       </c>
       <c r="F9">
-        <v>2.233224512041588</v>
+        <v>0.9198348135155925</v>
       </c>
       <c r="G9">
-        <v>0.0007877622344703503</v>
+        <v>0.0008049894962887304</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2680651893996782</v>
+        <v>0.2299909627571708</v>
       </c>
       <c r="K9">
-        <v>0.9915655092280673</v>
+        <v>1.368475609309911</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.735405515635982</v>
+        <v>0.7360754295827912</v>
       </c>
       <c r="O9">
-        <v>1.416399780938718</v>
+        <v>1.990323429000568</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.273374842352951</v>
+        <v>1.568840806690446</v>
       </c>
       <c r="C10">
-        <v>1.016901807595616</v>
+        <v>0.200881285284666</v>
       </c>
       <c r="D10">
-        <v>0.1106578713572617</v>
+        <v>0.3044060018462318</v>
       </c>
       <c r="E10">
-        <v>0.1938250109429234</v>
+        <v>0.2495076173462323</v>
       </c>
       <c r="F10">
-        <v>2.554419717931097</v>
+        <v>0.9994437815814337</v>
       </c>
       <c r="G10">
-        <v>0.0007749843967294239</v>
+        <v>0.0007987128296610585</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3158943851476153</v>
+        <v>0.2682943963317967</v>
       </c>
       <c r="K10">
-        <v>1.190690121155185</v>
+        <v>1.629176828088589</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6555848318272695</v>
+        <v>0.6698776338560055</v>
       </c>
       <c r="O10">
-        <v>1.614418124865679</v>
+        <v>2.101746257112211</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.604483564706925</v>
+        <v>1.683959409071292</v>
       </c>
       <c r="C11">
-        <v>1.096896055512332</v>
+        <v>0.2147721917683612</v>
       </c>
       <c r="D11">
-        <v>0.1184048491701333</v>
+        <v>0.325602518279311</v>
       </c>
       <c r="E11">
-        <v>0.2075492202804625</v>
+        <v>0.2664628478499296</v>
       </c>
       <c r="F11">
-        <v>2.708665889151973</v>
+        <v>1.037811506259018</v>
       </c>
       <c r="G11">
-        <v>0.000769251755167949</v>
+        <v>0.0007959274645895682</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.338480416926302</v>
+        <v>0.2861223517491425</v>
       </c>
       <c r="K11">
-        <v>1.283407603187385</v>
+        <v>1.7485609218364</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.621667252460675</v>
+        <v>0.6411584190530752</v>
       </c>
       <c r="O11">
-        <v>1.71003141722305</v>
+        <v>2.157716577685221</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.731157450817875</v>
+        <v>1.727697881674203</v>
       </c>
       <c r="C12">
-        <v>1.127498859265302</v>
+        <v>0.2200421827648995</v>
       </c>
       <c r="D12">
-        <v>0.1213588224008646</v>
+        <v>0.333668727737674</v>
       </c>
       <c r="E12">
-        <v>0.2128131707026455</v>
+        <v>0.2729304841763636</v>
       </c>
       <c r="F12">
-        <v>2.768409275194358</v>
+        <v>1.052675717374669</v>
       </c>
       <c r="G12">
-        <v>0.0007670901654447393</v>
+        <v>0.0007948823040449326</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3471706465974336</v>
+        <v>0.2929378615005902</v>
       </c>
       <c r="K12">
-        <v>1.318878214768148</v>
+        <v>1.793903019866292</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6091992407674809</v>
+        <v>0.6304932886159134</v>
       </c>
       <c r="O12">
-        <v>1.747145406421993</v>
+        <v>2.179730802167256</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.703815321619572</v>
+        <v>1.718271205724534</v>
       </c>
       <c r="C13">
-        <v>1.120893349129176</v>
+        <v>0.2189067245023324</v>
       </c>
       <c r="D13">
-        <v>0.1207216778796152</v>
+        <v>0.3319296955383493</v>
       </c>
       <c r="E13">
-        <v>0.2116763568395399</v>
+        <v>0.2715353901659583</v>
       </c>
       <c r="F13">
-        <v>2.75548031724756</v>
+        <v>1.049459109814393</v>
       </c>
       <c r="G13">
-        <v>0.0007675553307614055</v>
+        <v>0.0007951069787972553</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3452926240625942</v>
+        <v>0.2914670458687567</v>
       </c>
       <c r="K13">
-        <v>1.311222025772352</v>
+        <v>1.784131490498709</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6118671870673609</v>
+        <v>0.6327807046620286</v>
       </c>
       <c r="O13">
-        <v>1.73910996606142</v>
+        <v>2.174952202426027</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.61487807865484</v>
+        <v>1.687554760633617</v>
       </c>
       <c r="C14">
-        <v>1.099407242815346</v>
+        <v>0.2152055479304806</v>
       </c>
       <c r="D14">
-        <v>0.1186474491059926</v>
+        <v>0.3262653122147441</v>
       </c>
       <c r="E14">
-        <v>0.2079808933659706</v>
+        <v>0.2669939724302353</v>
       </c>
       <c r="F14">
-        <v>2.713553270803658</v>
+        <v>1.0390275234179</v>
       </c>
       <c r="G14">
-        <v>0.0007690737488025533</v>
+        <v>0.0007958412889987468</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3391925010091086</v>
+        <v>0.2866817377270792</v>
       </c>
       <c r="K14">
-        <v>1.286318236093464</v>
+        <v>1.752288437251138</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6206337735013179</v>
+        <v>0.6402767215271594</v>
       </c>
       <c r="O14">
-        <v>1.713065935057827</v>
+        <v>2.159510920531062</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.560575474940777</v>
+        <v>1.668759635440097</v>
       </c>
       <c r="C15">
-        <v>1.086288374218839</v>
+        <v>0.2129398126973143</v>
       </c>
       <c r="D15">
-        <v>0.1173796640794933</v>
+        <v>0.3228009952340898</v>
       </c>
       <c r="E15">
-        <v>0.2057263081834364</v>
+        <v>0.2642184991952519</v>
       </c>
       <c r="F15">
-        <v>2.688050651654606</v>
+        <v>1.032682315841768</v>
       </c>
       <c r="G15">
-        <v>0.0007700049544769206</v>
+        <v>0.0007962923108754316</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3354744729943917</v>
+        <v>0.2837591900950258</v>
       </c>
       <c r="K15">
-        <v>1.271112597469667</v>
+        <v>1.732801719952334</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6260535145180128</v>
+        <v>0.6448959230087918</v>
       </c>
       <c r="O15">
-        <v>1.697234919495898</v>
+        <v>2.150161253921766</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.251905847359694</v>
+        <v>1.56133676353025</v>
       </c>
       <c r="C16">
-        <v>1.011714728953848</v>
+        <v>0.1999747359552089</v>
       </c>
       <c r="D16">
-        <v>0.1101542781363634</v>
+        <v>0.3030260562584601</v>
       </c>
       <c r="E16">
-        <v>0.1929369546178492</v>
+        <v>0.2484058700341194</v>
       </c>
       <c r="F16">
-        <v>2.54451660840877</v>
+        <v>0.9969818330537805</v>
       </c>
       <c r="G16">
-        <v>0.0007753604607975942</v>
+        <v>0.0007988962282723907</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3144365145096373</v>
+        <v>0.2671379562524265</v>
       </c>
       <c r="K16">
-        <v>1.184678201118615</v>
+        <v>1.621392395789314</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6578522046260673</v>
+        <v>0.6717833760198288</v>
       </c>
       <c r="O16">
-        <v>1.608290153805612</v>
+        <v>2.098199793060559</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.064635883186895</v>
+        <v>1.495673365210877</v>
       </c>
       <c r="C17">
-        <v>0.9664665028852539</v>
+        <v>0.1920362495392141</v>
       </c>
       <c r="D17">
-        <v>0.1057549203106305</v>
+        <v>0.2909605840324048</v>
       </c>
       <c r="E17">
-        <v>0.1852004212252751</v>
+        <v>0.2387839267041088</v>
       </c>
       <c r="F17">
-        <v>2.458656846364832</v>
+        <v>0.9756498634653923</v>
       </c>
       <c r="G17">
-        <v>0.0007786648582518385</v>
+        <v>0.0008005112389478032</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3017548743192862</v>
+        <v>0.2570491492466545</v>
       </c>
       <c r="K17">
-        <v>1.132236338167303</v>
+        <v>1.553262687251788</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.677993988021214</v>
+        <v>0.6886418088854072</v>
       </c>
       <c r="O17">
-        <v>1.555217940959238</v>
+        <v>2.06771754785791</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.957631387430695</v>
+        <v>1.457986183577702</v>
       </c>
       <c r="C18">
-        <v>0.9406097120215691</v>
+        <v>0.1874751518261064</v>
       </c>
       <c r="D18">
-        <v>0.1032358433756571</v>
+        <v>0.2840436826921575</v>
       </c>
       <c r="E18">
-        <v>0.180787957070784</v>
+        <v>0.2332770026542406</v>
       </c>
       <c r="F18">
-        <v>2.410027151994015</v>
+        <v>0.9635813166462839</v>
       </c>
       <c r="G18">
-        <v>0.000780573146943156</v>
+        <v>0.0008014467607281397</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2945374749100012</v>
+        <v>0.2512839058031631</v>
       </c>
       <c r="K18">
-        <v>1.102270526910303</v>
+        <v>1.514149314626621</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6898021598353026</v>
+        <v>0.6984689723726292</v>
       </c>
       <c r="O18">
-        <v>1.525205640079719</v>
+        <v>2.050678462195236</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.921517750000817</v>
+        <v>1.445239210735224</v>
       </c>
       <c r="C19">
-        <v>0.9318826719006097</v>
+        <v>0.1859316245900686</v>
       </c>
       <c r="D19">
-        <v>0.1023847912525184</v>
+        <v>0.2817055368590218</v>
       </c>
       <c r="E19">
-        <v>0.179300140163015</v>
+        <v>0.2314170120131962</v>
       </c>
       <c r="F19">
-        <v>2.393686886474271</v>
+        <v>0.9595288923909919</v>
       </c>
       <c r="G19">
-        <v>0.0007812206459522144</v>
+        <v>0.0008017646612366773</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2921064470972112</v>
+        <v>0.2493381580545275</v>
       </c>
       <c r="K19">
-        <v>1.092156987803605</v>
+        <v>1.500918146351808</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6938376270543642</v>
+        <v>0.7018184338498725</v>
       </c>
       <c r="O19">
-        <v>1.515128991386547</v>
+        <v>2.04499232655769</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.084496494161499</v>
+        <v>1.502654854621994</v>
       </c>
       <c r="C20">
-        <v>0.9712654560868259</v>
+        <v>0.1928807921781726</v>
       </c>
       <c r="D20">
-        <v>0.1062220489996548</v>
+        <v>0.292242580579682</v>
       </c>
       <c r="E20">
-        <v>0.1860200582820184</v>
+        <v>0.2398053333920984</v>
       </c>
       <c r="F20">
-        <v>2.467717543077953</v>
+        <v>0.9778997018843825</v>
       </c>
       <c r="G20">
-        <v>0.0007783123197443886</v>
+        <v>0.0008003386373672616</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3030967884264726</v>
+        <v>0.2581191863936567</v>
       </c>
       <c r="K20">
-        <v>1.137798070613215</v>
+        <v>1.560507509621658</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6758265483259152</v>
+        <v>0.686833611225486</v>
       </c>
       <c r="O20">
-        <v>1.560813665245504</v>
+        <v>2.070910940636708</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.640964465421405</v>
+        <v>1.696572805380782</v>
       </c>
       <c r="C21">
-        <v>1.105709387628508</v>
+        <v>0.2162923894834137</v>
       </c>
       <c r="D21">
-        <v>0.1192561239132317</v>
+        <v>0.3279279702801432</v>
       </c>
       <c r="E21">
-        <v>0.209064449061259</v>
+        <v>0.2683265799119212</v>
       </c>
       <c r="F21">
-        <v>2.725830654300324</v>
+        <v>1.042082223726155</v>
       </c>
       <c r="G21">
-        <v>0.0007686275214073834</v>
+        <v>0.0007956253476757747</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3409803692650684</v>
+        <v>0.2880854960866515</v>
       </c>
       <c r="K21">
-        <v>1.293622838747666</v>
+        <v>1.76163770912359</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6180483419822309</v>
+        <v>0.6380691740589048</v>
       </c>
       <c r="O21">
-        <v>1.720690115976055</v>
+        <v>2.164023662043263</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.012273858677588</v>
+        <v>1.824168333911331</v>
       </c>
       <c r="C22">
-        <v>1.195414227090055</v>
+        <v>0.2316514809846808</v>
       </c>
       <c r="D22">
-        <v>0.1278948670426132</v>
+        <v>0.351483141288071</v>
       </c>
       <c r="E22">
-        <v>0.2245201114792366</v>
+        <v>0.2872436268627396</v>
       </c>
       <c r="F22">
-        <v>2.902387847057412</v>
+        <v>1.085996114594039</v>
       </c>
       <c r="G22">
-        <v>0.0007623505285890705</v>
+        <v>0.0007926006437595207</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3665504865048632</v>
+        <v>0.308049195678862</v>
       </c>
       <c r="K22">
-        <v>1.397594520340178</v>
+        <v>1.893879152321631</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.582495324036401</v>
+        <v>0.6074290580743618</v>
       </c>
       <c r="O22">
-        <v>1.830529314571351</v>
+        <v>2.229685565048527</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.813332632564936</v>
+        <v>1.755982495814692</v>
       </c>
       <c r="C23">
-        <v>1.147351400439675</v>
+        <v>0.223447974701358</v>
       </c>
       <c r="D23">
-        <v>0.1232721964078536</v>
+        <v>0.3388885304699158</v>
       </c>
       <c r="E23">
-        <v>0.2162317833119616</v>
+        <v>0.2771202473819088</v>
       </c>
       <c r="F23">
-        <v>2.807376541516902</v>
+        <v>1.062369552174957</v>
       </c>
       <c r="G23">
-        <v>0.0007656966908171301</v>
+        <v>0.0007942100471558522</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3528223728964548</v>
+        <v>0.297357271697976</v>
       </c>
       <c r="K23">
-        <v>1.341888393080225</v>
+        <v>1.82321987586613</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6012570285028005</v>
+        <v>0.6236663195610221</v>
       </c>
       <c r="O23">
-        <v>1.771375883058809</v>
+        <v>2.194179850269876</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.075515471727442</v>
+        <v>1.499498326738262</v>
       </c>
       <c r="C24">
-        <v>0.9690953638166775</v>
+        <v>0.1924989657499765</v>
       </c>
       <c r="D24">
-        <v>0.1060108286408621</v>
+        <v>0.2916629288987451</v>
       </c>
       <c r="E24">
-        <v>0.1856493908495054</v>
+        <v>0.2393434783550958</v>
       </c>
       <c r="F24">
-        <v>2.46361893352568</v>
+        <v>0.9768819429492623</v>
       </c>
       <c r="G24">
-        <v>0.0007784716756032558</v>
+        <v>0.0008004166485889987</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3024898816478867</v>
+        <v>0.257635314230356</v>
       </c>
       <c r="K24">
-        <v>1.135283043107179</v>
+        <v>1.55723195468849</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6768057387684294</v>
+        <v>0.6876506775370528</v>
       </c>
       <c r="O24">
-        <v>1.558282290343598</v>
+        <v>2.069465699806528</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.306153582976776</v>
+        <v>1.225851717611874</v>
       </c>
       <c r="C25">
-        <v>0.7831241913986844</v>
+        <v>0.1592959702323355</v>
       </c>
       <c r="D25">
-        <v>0.08781562829005907</v>
+        <v>0.2415807349204755</v>
       </c>
       <c r="E25">
-        <v>0.1540632112570108</v>
+        <v>0.1996245267148495</v>
       </c>
       <c r="F25">
-        <v>2.12116408426597</v>
+        <v>0.8922666840528422</v>
       </c>
       <c r="G25">
-        <v>0.0007925525563526757</v>
+        <v>0.000807365841671237</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2510760485766781</v>
+        <v>0.2162028212667053</v>
       </c>
       <c r="K25">
-        <v>0.9198062968530536</v>
+        <v>1.273042266912341</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7667322002260377</v>
+        <v>0.7616291953141772</v>
       </c>
       <c r="O25">
-        <v>1.347713094226009</v>
+        <v>1.953600832214875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.026228309218169</v>
+        <v>0.8754778330197155</v>
       </c>
       <c r="C2">
-        <v>0.1349287273555859</v>
+        <v>0.177019291089394</v>
       </c>
       <c r="D2">
-        <v>0.2052916441622159</v>
+        <v>0.2540660451371934</v>
       </c>
       <c r="E2">
-        <v>0.171096689967726</v>
+        <v>0.1841093715236326</v>
       </c>
       <c r="F2">
-        <v>0.8356207409359442</v>
+        <v>0.5990600042469651</v>
       </c>
       <c r="G2">
-        <v>0.0008127178987711344</v>
+        <v>0.3091374206777147</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004908776790863989</v>
       </c>
       <c r="J2">
-        <v>0.1866890368279144</v>
+        <v>0.2860244440979258</v>
       </c>
       <c r="K2">
-        <v>1.065403902544858</v>
+        <v>0.2510778018493163</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1801400892303704</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9831231327567593</v>
       </c>
       <c r="N2">
-        <v>0.8200503472878509</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.882301883842302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7629855505235597</v>
+      </c>
+      <c r="Q2">
+        <v>1.202202942429935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8917716953514798</v>
+        <v>0.7622214511291077</v>
       </c>
       <c r="C3">
-        <v>0.1184310351917759</v>
+        <v>0.1564868104674844</v>
       </c>
       <c r="D3">
-        <v>0.1809945603024801</v>
+        <v>0.2250476957276959</v>
       </c>
       <c r="E3">
-        <v>0.1521336398823152</v>
+        <v>0.1639884657000366</v>
       </c>
       <c r="F3">
-        <v>0.8003580603279943</v>
+        <v>0.5753375294511969</v>
       </c>
       <c r="G3">
-        <v>0.0008164995841046995</v>
+        <v>0.3009483779292452</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004332481966500268</v>
       </c>
       <c r="J3">
-        <v>0.1672047506771932</v>
+        <v>0.2867004836978424</v>
       </c>
       <c r="K3">
-        <v>0.9253585034612968</v>
+        <v>0.2545539318653205</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1612697239627252</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8571906061848722</v>
       </c>
       <c r="N3">
-        <v>0.8619628278471088</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.841791602697441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7863600678662372</v>
+      </c>
+      <c r="Q3">
+        <v>1.185968278008431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8095244118152038</v>
+        <v>0.6923319248151358</v>
       </c>
       <c r="C4">
-        <v>0.1082993786956195</v>
+        <v>0.1440228591164043</v>
       </c>
       <c r="D4">
-        <v>0.1662012122163361</v>
+        <v>0.2074217060881836</v>
       </c>
       <c r="E4">
-        <v>0.1406496429058812</v>
+        <v>0.1517947040686742</v>
       </c>
       <c r="F4">
-        <v>0.780125978304504</v>
+        <v>0.5614875329449731</v>
       </c>
       <c r="G4">
-        <v>0.0008189001650457425</v>
+        <v>0.296352237698116</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0005481459851415238</v>
       </c>
       <c r="J4">
-        <v>0.1554655352528869</v>
+        <v>0.2874127193026297</v>
       </c>
       <c r="K4">
-        <v>0.8396026152601905</v>
+        <v>0.2569451477383549</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1498612269251325</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7797891974408913</v>
       </c>
       <c r="N4">
-        <v>0.8887967333174278</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.820484733703609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8014277579274989</v>
+      </c>
+      <c r="Q4">
+        <v>1.177530211546269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7760724153633305</v>
+        <v>0.6631387704642862</v>
       </c>
       <c r="C5">
-        <v>0.1041688200246824</v>
+        <v>0.1393432480125369</v>
       </c>
       <c r="D5">
-        <v>0.1602014225325235</v>
+        <v>0.2003753143313958</v>
       </c>
       <c r="E5">
-        <v>0.136006693233071</v>
+        <v>0.1468854759247122</v>
       </c>
       <c r="F5">
-        <v>0.7722209925715831</v>
+        <v>0.5556877625845118</v>
       </c>
       <c r="G5">
-        <v>0.0008198985179149402</v>
+        <v>0.29432108603622</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0006983065856611681</v>
       </c>
       <c r="J5">
-        <v>0.1507338067487325</v>
+        <v>0.2876398521473718</v>
       </c>
       <c r="K5">
-        <v>0.8047015475392811</v>
+        <v>0.2577673942238707</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1452406767629526</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7482627286387071</v>
       </c>
       <c r="N5">
-        <v>0.9000017772792934</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.812658858493251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8078329818290051</v>
+      </c>
+      <c r="Q5">
+        <v>1.173621900290669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7705212503247765</v>
+        <v>0.657522974287815</v>
       </c>
       <c r="C6">
-        <v>0.1034827965175964</v>
+        <v>0.1390184817412745</v>
       </c>
       <c r="D6">
-        <v>0.1592068099069905</v>
+        <v>0.1993197913900389</v>
       </c>
       <c r="E6">
-        <v>0.1352378711912152</v>
+        <v>0.146099666321895</v>
       </c>
       <c r="F6">
-        <v>0.770928409989402</v>
+        <v>0.5543332451448535</v>
       </c>
       <c r="G6">
-        <v>0.0008200655168503177</v>
+        <v>0.2936694605682817</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0008150286861550171</v>
       </c>
       <c r="J6">
-        <v>0.1499511321695692</v>
+        <v>0.2875157942377982</v>
       </c>
       <c r="K6">
-        <v>0.7989086034818627</v>
+        <v>0.2576450986756651</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1444597685800204</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7430753756388668</v>
       </c>
       <c r="N6">
-        <v>0.9018784912129987</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.81140999611516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8090175787100584</v>
+      </c>
+      <c r="Q6">
+        <v>1.171967351110283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8090730227939957</v>
+        <v>0.6898477213078422</v>
       </c>
       <c r="C7">
-        <v>0.1082436816199674</v>
+        <v>0.1451918731644923</v>
       </c>
       <c r="D7">
-        <v>0.166120184741132</v>
+        <v>0.2076323941904832</v>
       </c>
       <c r="E7">
-        <v>0.1405868812934514</v>
+        <v>0.1518025447740428</v>
       </c>
       <c r="F7">
-        <v>0.7800180153269451</v>
+        <v>0.5603115363434128</v>
       </c>
       <c r="G7">
-        <v>0.0008189135473264386</v>
+        <v>0.2954492194224656</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00077973397196196</v>
       </c>
       <c r="J7">
-        <v>0.1554015160755</v>
+        <v>0.2869625367240545</v>
       </c>
       <c r="K7">
-        <v>0.8391317615135279</v>
+        <v>0.2562397619462562</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1497546333526429</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7794985714449183</v>
       </c>
       <c r="N7">
-        <v>0.8889467635034229</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.820375773332501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8018260968629178</v>
+      </c>
+      <c r="Q7">
+        <v>1.174671392464347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9797950686881052</v>
+        <v>0.8337034884679895</v>
       </c>
       <c r="C8">
-        <v>0.1292399138705917</v>
+        <v>0.1715528049398927</v>
       </c>
       <c r="D8">
-        <v>0.1968862644686027</v>
+        <v>0.2444250171136702</v>
       </c>
       <c r="E8">
-        <v>0.1645231625515891</v>
+        <v>0.1772348302200513</v>
       </c>
       <c r="F8">
-        <v>0.8231569884474084</v>
+        <v>0.5892761393781569</v>
       </c>
       <c r="G8">
-        <v>0.0008140057110704534</v>
+        <v>0.3050648823659188</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007140355396249021</v>
       </c>
       <c r="J8">
-        <v>0.1799216688447984</v>
+        <v>0.2855987267028297</v>
       </c>
       <c r="K8">
-        <v>1.01705969398509</v>
+        <v>0.2512803262904306</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1735356693674035</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9398919584291434</v>
       </c>
       <c r="N8">
-        <v>0.8342695962807256</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.867568991585216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7713561973001397</v>
+      </c>
+      <c r="Q8">
+        <v>1.192578790501173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.31769445805719</v>
+        <v>1.116900547668052</v>
       </c>
       <c r="C9">
-        <v>0.1704632758911373</v>
+        <v>0.2223117362760405</v>
       </c>
       <c r="D9">
-        <v>0.2583502540343403</v>
+        <v>0.3176956955641401</v>
       </c>
       <c r="E9">
-        <v>0.2128818003205808</v>
+        <v>0.2283797082653294</v>
       </c>
       <c r="F9">
-        <v>0.9198348135155925</v>
+        <v>0.6540696265826824</v>
       </c>
       <c r="G9">
-        <v>0.0008049894962887304</v>
+        <v>0.3291347670421274</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001515025921461799</v>
       </c>
       <c r="J9">
-        <v>0.2299909627571708</v>
+        <v>0.2861806706701913</v>
       </c>
       <c r="K9">
-        <v>1.368475609309911</v>
+        <v>0.2449476276128415</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2218110128560653</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.253829569588248</v>
       </c>
       <c r="N9">
-        <v>0.7360754295827912</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.990323429000568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7168338009968025</v>
+      </c>
+      <c r="Q9">
+        <v>1.245505566684372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.568840806690446</v>
+        <v>1.32239203712416</v>
       </c>
       <c r="C10">
-        <v>0.200881285284666</v>
+        <v>0.2612608606438158</v>
       </c>
       <c r="D10">
-        <v>0.3044060018462318</v>
+        <v>0.3729243352287313</v>
       </c>
       <c r="E10">
-        <v>0.2495076173462323</v>
+        <v>0.2670428193646046</v>
       </c>
       <c r="F10">
-        <v>0.9994437815814337</v>
+        <v>0.7053254835782212</v>
       </c>
       <c r="G10">
-        <v>0.0007987128296610585</v>
+        <v>0.3489393196719774</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003118980846998021</v>
       </c>
       <c r="J10">
-        <v>0.2682943963317967</v>
+        <v>0.2880208392355854</v>
       </c>
       <c r="K10">
-        <v>1.629176828088589</v>
+        <v>0.241363954846797</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2584265991296348</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.484746829466189</v>
       </c>
       <c r="N10">
-        <v>0.6698776338560055</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.101746257112211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6808571476955123</v>
+      </c>
+      <c r="Q10">
+        <v>1.291806991970901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.683959409071292</v>
+        <v>1.412036654367654</v>
       </c>
       <c r="C11">
-        <v>0.2147721917683612</v>
+        <v>0.2813556480462154</v>
       </c>
       <c r="D11">
-        <v>0.325602518279311</v>
+        <v>0.3988783895084111</v>
       </c>
       <c r="E11">
-        <v>0.2664628478499296</v>
+        <v>0.2850256392792758</v>
       </c>
       <c r="F11">
-        <v>1.037811506259018</v>
+        <v>0.7278846579270279</v>
       </c>
       <c r="G11">
-        <v>0.0007959274645895682</v>
+        <v>0.3571598286777942</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004433702558127806</v>
       </c>
       <c r="J11">
-        <v>0.2861223517491425</v>
+        <v>0.288521684165957</v>
       </c>
       <c r="K11">
-        <v>1.7485609218364</v>
+        <v>0.2389340993981328</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2753133197464592</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.590154154827616</v>
       </c>
       <c r="N11">
-        <v>0.6411584190530752</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.157716577685221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.6661451844973243</v>
+      </c>
+      <c r="Q11">
+        <v>1.310485540606606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.727697881674203</v>
+        <v>1.447822152474657</v>
       </c>
       <c r="C12">
-        <v>0.2200421827648995</v>
+        <v>0.2878999210965247</v>
       </c>
       <c r="D12">
-        <v>0.333668727737674</v>
+        <v>0.4084885069211737</v>
       </c>
       <c r="E12">
-        <v>0.2729304841763636</v>
+        <v>0.2918143399252315</v>
       </c>
       <c r="F12">
-        <v>1.052675717374669</v>
+        <v>0.7375387014133139</v>
       </c>
       <c r="G12">
-        <v>0.0007948823040449326</v>
+        <v>0.3611257412818674</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004777384439950794</v>
       </c>
       <c r="J12">
-        <v>0.2929378615005902</v>
+        <v>0.2891556219106377</v>
       </c>
       <c r="K12">
-        <v>1.793903019866292</v>
+        <v>0.2386710698776611</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2817964972164475</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.62998463960497</v>
       </c>
       <c r="N12">
-        <v>0.6304932886159134</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.179730802167256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.6603283311561903</v>
+      </c>
+      <c r="Q12">
+        <v>1.320296419343066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.718271205724534</v>
+        <v>1.440495613893347</v>
       </c>
       <c r="C13">
-        <v>0.2189067245023324</v>
+        <v>0.2862639540536804</v>
       </c>
       <c r="D13">
-        <v>0.3319296955383493</v>
+        <v>0.4063622659203929</v>
       </c>
       <c r="E13">
-        <v>0.2715353901659583</v>
+        <v>0.2903373715654851</v>
       </c>
       <c r="F13">
-        <v>1.049459109814393</v>
+        <v>0.7356438000401369</v>
       </c>
       <c r="G13">
-        <v>0.0007951069787972553</v>
+        <v>0.3604189850056656</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004661021217498451</v>
       </c>
       <c r="J13">
-        <v>0.2914670458687567</v>
+        <v>0.2890938591513645</v>
       </c>
       <c r="K13">
-        <v>1.784131490498709</v>
+        <v>0.2388468775100989</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2804061248260723</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.621382117324316</v>
       </c>
       <c r="N13">
-        <v>0.6327807046620286</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.174952202426027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.6614956620637784</v>
+      </c>
+      <c r="Q13">
+        <v>1.318652544332053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.687554760633617</v>
+        <v>1.415142308994348</v>
       </c>
       <c r="C14">
-        <v>0.2152055479304806</v>
+        <v>0.2817977857902321</v>
       </c>
       <c r="D14">
-        <v>0.3262653122147441</v>
+        <v>0.3996449517787823</v>
       </c>
       <c r="E14">
-        <v>0.2669939724302353</v>
+        <v>0.2855777718832542</v>
       </c>
       <c r="F14">
-        <v>1.0390275234179</v>
+        <v>0.7287570088430897</v>
       </c>
       <c r="G14">
-        <v>0.0007958412889987468</v>
+        <v>0.3575486100083936</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.004443639018846035</v>
       </c>
       <c r="J14">
-        <v>0.2866817377270792</v>
+        <v>0.2886055489848474</v>
       </c>
       <c r="K14">
-        <v>1.752288437251138</v>
+        <v>0.2389630376498957</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2758491437745505</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.593420662427633</v>
       </c>
       <c r="N14">
-        <v>0.6402767215271594</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.159510920531062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.6656303680162559</v>
+      </c>
+      <c r="Q14">
+        <v>1.311491631362259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.668759635440097</v>
+        <v>1.398863055688366</v>
       </c>
       <c r="C15">
-        <v>0.2129398126973143</v>
+        <v>0.2795101571121279</v>
       </c>
       <c r="D15">
-        <v>0.3228009952340898</v>
+        <v>0.3956438858958791</v>
       </c>
       <c r="E15">
-        <v>0.2642184991952519</v>
+        <v>0.2826935827741224</v>
       </c>
       <c r="F15">
-        <v>1.032682315841768</v>
+        <v>0.7241826254299895</v>
       </c>
       <c r="G15">
-        <v>0.0007962923108754316</v>
+        <v>0.3555044149102997</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004399657502831111</v>
       </c>
       <c r="J15">
-        <v>0.2837591900950258</v>
+        <v>0.2881616223212404</v>
       </c>
       <c r="K15">
-        <v>1.732801719952334</v>
+        <v>0.2388017040499157</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2730483515661462</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.576342732742063</v>
       </c>
       <c r="N15">
-        <v>0.6448959230087918</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.150161253921766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.6683355161845874</v>
+      </c>
+      <c r="Q15">
+        <v>1.306195562425387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.56133676353025</v>
+        <v>1.310263140503309</v>
       </c>
       <c r="C16">
-        <v>0.1999747359552089</v>
+        <v>0.2636618535284327</v>
       </c>
       <c r="D16">
-        <v>0.3030260562584601</v>
+        <v>0.3721334972054819</v>
       </c>
       <c r="E16">
-        <v>0.2484058700341194</v>
+        <v>0.2660880751883994</v>
       </c>
       <c r="F16">
-        <v>0.9969818330537805</v>
+        <v>0.7006934767221651</v>
       </c>
       <c r="G16">
-        <v>0.0007988962282723907</v>
+        <v>0.3458929152471697</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.00369795547999896</v>
       </c>
       <c r="J16">
-        <v>0.2671379562524265</v>
+        <v>0.2867078877799685</v>
       </c>
       <c r="K16">
-        <v>1.621392395789314</v>
+        <v>0.2395061569953434</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2571956685386567</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.478243966560456</v>
       </c>
       <c r="N16">
-        <v>0.6717833760198288</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.098199793060559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.6831086026956221</v>
+      </c>
+      <c r="Q16">
+        <v>1.282585277059894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.495673365210877</v>
+        <v>1.255869104643921</v>
       </c>
       <c r="C17">
-        <v>0.1920362495392141</v>
+        <v>0.253997329082793</v>
       </c>
       <c r="D17">
-        <v>0.2909605840324048</v>
+        <v>0.3577925773330861</v>
       </c>
       <c r="E17">
-        <v>0.2387839267041088</v>
+        <v>0.2559731053742169</v>
       </c>
       <c r="F17">
-        <v>0.9756498634653923</v>
+        <v>0.6865695824157356</v>
       </c>
       <c r="G17">
-        <v>0.0008005112389478032</v>
+        <v>0.3401738440145863</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003333689356087355</v>
       </c>
       <c r="J17">
-        <v>0.2570491492466545</v>
+        <v>0.2859225364882079</v>
       </c>
       <c r="K17">
-        <v>1.553262687251788</v>
+        <v>0.2400347387292818</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2475527075675501</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.418105663905777</v>
       </c>
       <c r="N17">
-        <v>0.6886418088854072</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.06771754785791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.6923973832321799</v>
+      </c>
+      <c r="Q17">
+        <v>1.268697877793926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.457986183577702</v>
+        <v>1.226456088526191</v>
       </c>
       <c r="C18">
-        <v>0.1874751518261064</v>
+        <v>0.2473329570283767</v>
       </c>
       <c r="D18">
-        <v>0.2840436826921575</v>
+        <v>0.3493006646017562</v>
       </c>
       <c r="E18">
-        <v>0.2332770026542406</v>
+        <v>0.2501153592096159</v>
       </c>
       <c r="F18">
-        <v>0.9635813166462839</v>
+        <v>0.6795094678791429</v>
       </c>
       <c r="G18">
-        <v>0.0008014467607281397</v>
+        <v>0.3377101510587366</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002909191872110917</v>
       </c>
       <c r="J18">
-        <v>0.2512839058031631</v>
+        <v>0.2858992436683252</v>
       </c>
       <c r="K18">
-        <v>1.514149314626621</v>
+        <v>0.240984886498758</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2420754441161819</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.383412181486136</v>
       </c>
       <c r="N18">
-        <v>0.6984689723726292</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.050678462195236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.6974424670851995</v>
+      </c>
+      <c r="Q18">
+        <v>1.263357432939301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.445239210735224</v>
+        <v>1.215036873112496</v>
       </c>
       <c r="C19">
-        <v>0.1859316245900686</v>
+        <v>0.2459476131494682</v>
       </c>
       <c r="D19">
-        <v>0.2817055368590218</v>
+        <v>0.3466401598819573</v>
       </c>
       <c r="E19">
-        <v>0.2314170120131962</v>
+        <v>0.248186468814346</v>
       </c>
       <c r="F19">
-        <v>0.9595288923909919</v>
+        <v>0.6763941017572819</v>
       </c>
       <c r="G19">
-        <v>0.0008017646612366773</v>
+        <v>0.3362980835874438</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002949911765339763</v>
       </c>
       <c r="J19">
-        <v>0.2493381580545275</v>
+        <v>0.2855968000969824</v>
       </c>
       <c r="K19">
-        <v>1.500918146351808</v>
+        <v>0.2408405607289907</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2401946349953619</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.371757346552755</v>
       </c>
       <c r="N19">
-        <v>0.7018184338498725</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.04499232655769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.6994568234012206</v>
+      </c>
+      <c r="Q19">
+        <v>1.259706988905123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.502654854621994</v>
+        <v>1.26180950752962</v>
       </c>
       <c r="C20">
-        <v>0.1928807921781726</v>
+        <v>0.2549355537540237</v>
       </c>
       <c r="D20">
-        <v>0.292242580579682</v>
+        <v>0.3592948185772968</v>
       </c>
       <c r="E20">
-        <v>0.2398053333920984</v>
+        <v>0.2570421132751548</v>
       </c>
       <c r="F20">
-        <v>0.9778997018843825</v>
+        <v>0.6881379885752068</v>
       </c>
       <c r="G20">
-        <v>0.0008003386373672616</v>
+        <v>0.3408359301336645</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003351073356139267</v>
       </c>
       <c r="J20">
-        <v>0.2581191863936567</v>
+        <v>0.2860327665507612</v>
       </c>
       <c r="K20">
-        <v>1.560507509621658</v>
+        <v>0.2400228046254256</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.248579378043047</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.424496965035217</v>
       </c>
       <c r="N20">
-        <v>0.686833611225486</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.070910940636708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6913700405704049</v>
+      </c>
+      <c r="Q20">
+        <v>1.270345024325692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.696572805380782</v>
+        <v>1.420466889420311</v>
       </c>
       <c r="C21">
-        <v>0.2162923894834137</v>
+        <v>0.284368981288992</v>
       </c>
       <c r="D21">
-        <v>0.3279279702801432</v>
+        <v>0.4019206256329824</v>
       </c>
       <c r="E21">
-        <v>0.2683265799119212</v>
+        <v>0.2870470415750077</v>
       </c>
       <c r="F21">
-        <v>1.042082223726155</v>
+        <v>0.7297014742112182</v>
       </c>
       <c r="G21">
-        <v>0.0007956253476757747</v>
+        <v>0.3575378902983601</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004747389128850976</v>
       </c>
       <c r="J21">
-        <v>0.2880854960866515</v>
+        <v>0.2883132253834049</v>
       </c>
       <c r="K21">
-        <v>1.76163770912359</v>
+        <v>0.2382469122186919</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2771407716076766</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.601761279606535</v>
       </c>
       <c r="N21">
-        <v>0.6380691740589048</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.164023662043263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6648568077934094</v>
+      </c>
+      <c r="Q21">
+        <v>1.310872268397503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.824168333911331</v>
+        <v>1.526735200474747</v>
       </c>
       <c r="C22">
-        <v>0.2316514809846808</v>
+        <v>0.3022098693928257</v>
       </c>
       <c r="D22">
-        <v>0.351483141288071</v>
+        <v>0.4296783796692694</v>
       </c>
       <c r="E22">
-        <v>0.2872436268627396</v>
+        <v>0.3068159778809019</v>
       </c>
       <c r="F22">
-        <v>1.085996114594039</v>
+        <v>0.7592094392243069</v>
       </c>
       <c r="G22">
-        <v>0.0007926006437595207</v>
+        <v>0.3701427720861545</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.005574901146737865</v>
       </c>
       <c r="J22">
-        <v>0.308049195678862</v>
+        <v>0.2907155512530721</v>
       </c>
       <c r="K22">
-        <v>1.893879152321631</v>
+        <v>0.2382769934679203</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2961518541393247</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.717620818450285</v>
       </c>
       <c r="N22">
-        <v>0.6074290580743618</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.229685565048527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.6477257070321798</v>
+      </c>
+      <c r="Q22">
+        <v>1.342843460890293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.755982495814692</v>
+        <v>1.472590030950784</v>
       </c>
       <c r="C23">
-        <v>0.223447974701358</v>
+        <v>0.2911496366735236</v>
       </c>
       <c r="D23">
-        <v>0.3388885304699158</v>
+        <v>0.4144695656212036</v>
       </c>
       <c r="E23">
-        <v>0.2771202473819088</v>
+        <v>0.2961533701360892</v>
       </c>
       <c r="F23">
-        <v>1.062369552174957</v>
+        <v>0.7446617641725197</v>
       </c>
       <c r="G23">
-        <v>0.0007942100471558522</v>
+        <v>0.3643834860876751</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004839024649154311</v>
       </c>
       <c r="J23">
-        <v>0.297357271697976</v>
+        <v>0.2899225475852063</v>
       </c>
       <c r="K23">
-        <v>1.82321987586613</v>
+        <v>0.2390509918109451</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2860324773256053</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.65561155535417</v>
       </c>
       <c r="N23">
-        <v>0.6236663195610221</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.194179850269876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6562590652491345</v>
+      </c>
+      <c r="Q23">
+        <v>1.328857455113337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.499498326738262</v>
+        <v>1.263129088988308</v>
       </c>
       <c r="C24">
-        <v>0.1924989657499765</v>
+        <v>0.2521328586957168</v>
       </c>
       <c r="D24">
-        <v>0.2916629288987451</v>
+        <v>0.3580397397872304</v>
       </c>
       <c r="E24">
-        <v>0.2393434783550958</v>
+        <v>0.2564210345198603</v>
       </c>
       <c r="F24">
-        <v>0.9768819429492623</v>
+        <v>0.6894654029232044</v>
       </c>
       <c r="G24">
-        <v>0.0008004166485889987</v>
+        <v>0.3421520750438134</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002879104072650129</v>
       </c>
       <c r="J24">
-        <v>0.257635314230356</v>
+        <v>0.2868087790946205</v>
       </c>
       <c r="K24">
-        <v>1.55723195468849</v>
+        <v>0.2413240837557353</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2482006553836555</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.421361618355519</v>
       </c>
       <c r="N24">
-        <v>0.6876506775370528</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.069465699806528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6910285580463693</v>
+      </c>
+      <c r="Q24">
+        <v>1.274754939124108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.225851717611874</v>
+        <v>1.036701374990542</v>
       </c>
       <c r="C25">
-        <v>0.1592959702323355</v>
+        <v>0.2106983016584252</v>
       </c>
       <c r="D25">
-        <v>0.2415807349204755</v>
+        <v>0.2982301803399423</v>
       </c>
       <c r="E25">
-        <v>0.1996245267148495</v>
+        <v>0.2145078459871783</v>
       </c>
       <c r="F25">
-        <v>0.8922666840528422</v>
+        <v>0.6338625229609178</v>
       </c>
       <c r="G25">
-        <v>0.000807365841671237</v>
+        <v>0.3206246641494346</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001543756787615536</v>
       </c>
       <c r="J25">
-        <v>0.2162028212667053</v>
+        <v>0.2849390381220971</v>
       </c>
       <c r="K25">
-        <v>1.273042266912341</v>
+        <v>0.2451488581026631</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2084802700020703</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.169138304211145</v>
       </c>
       <c r="N25">
-        <v>0.7616291953141772</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.953600832214875</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7316417531782484</v>
+      </c>
+      <c r="Q25">
+        <v>1.224686093635043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8754778330197155</v>
+        <v>0.8504082765162195</v>
       </c>
       <c r="C2">
-        <v>0.177019291089394</v>
+        <v>0.1870744308928209</v>
       </c>
       <c r="D2">
-        <v>0.2540660451371934</v>
+        <v>0.2585596566206618</v>
       </c>
       <c r="E2">
-        <v>0.1841093715236326</v>
+        <v>0.1852475395510496</v>
       </c>
       <c r="F2">
-        <v>0.5990600042469651</v>
+        <v>0.5810776790643999</v>
       </c>
       <c r="G2">
-        <v>0.3091374206777147</v>
+        <v>0.2772760548472135</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0004908776790863989</v>
+        <v>0.0006759770963693512</v>
       </c>
       <c r="J2">
-        <v>0.2860244440979258</v>
+        <v>0.3104801706891536</v>
       </c>
       <c r="K2">
-        <v>0.2510778018493163</v>
+        <v>0.2344822908607789</v>
       </c>
       <c r="L2">
-        <v>0.1801400892303704</v>
+        <v>0.1324376255127948</v>
       </c>
       <c r="M2">
-        <v>0.9831231327567593</v>
+        <v>0.05373653582473281</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1795587425100749</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9855130727744665</v>
       </c>
       <c r="P2">
-        <v>0.7629855505235597</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.202202942429935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7575146322429447</v>
+      </c>
+      <c r="S2">
+        <v>1.153674553830982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7622214511291077</v>
+        <v>0.7441196407193047</v>
       </c>
       <c r="C3">
-        <v>0.1564868104674844</v>
+        <v>0.1621684554202005</v>
       </c>
       <c r="D3">
-        <v>0.2250476957276959</v>
+        <v>0.2286584521239519</v>
       </c>
       <c r="E3">
-        <v>0.1639884657000366</v>
+        <v>0.1649218569238116</v>
       </c>
       <c r="F3">
-        <v>0.5753375294511969</v>
+        <v>0.5596322810914174</v>
       </c>
       <c r="G3">
-        <v>0.3009483779292452</v>
+        <v>0.2714923987157292</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004332481966500268</v>
+        <v>0.0005083965317091987</v>
       </c>
       <c r="J3">
-        <v>0.2867004836978424</v>
+        <v>0.3095772205265845</v>
       </c>
       <c r="K3">
-        <v>0.2545539318653205</v>
+        <v>0.2387248982812711</v>
       </c>
       <c r="L3">
-        <v>0.1612697239627252</v>
+        <v>0.137370403786905</v>
       </c>
       <c r="M3">
-        <v>0.8571906061848722</v>
+        <v>0.05329928573129905</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1608169953205234</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8594336795081006</v>
       </c>
       <c r="P3">
-        <v>0.7863600678662372</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.185968278008431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7771535951791932</v>
+      </c>
+      <c r="S3">
+        <v>1.142260954622202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6923319248151358</v>
+        <v>0.6783500812765908</v>
       </c>
       <c r="C4">
-        <v>0.1440228591164043</v>
+        <v>0.1471303052197186</v>
       </c>
       <c r="D4">
-        <v>0.2074217060881836</v>
+        <v>0.210511343783466</v>
       </c>
       <c r="E4">
-        <v>0.1517947040686742</v>
+        <v>0.1526048748575555</v>
       </c>
       <c r="F4">
-        <v>0.5614875329449731</v>
+        <v>0.5470657870164288</v>
       </c>
       <c r="G4">
-        <v>0.296352237698116</v>
+        <v>0.268378076639344</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0005481459851415238</v>
+        <v>0.0005330995208239209</v>
       </c>
       <c r="J4">
-        <v>0.2874127193026297</v>
+        <v>0.3091527161010177</v>
       </c>
       <c r="K4">
-        <v>0.2569451477383549</v>
+        <v>0.2415160303952231</v>
       </c>
       <c r="L4">
-        <v>0.1498612269251325</v>
+        <v>0.1405500056739584</v>
       </c>
       <c r="M4">
-        <v>0.7797891974408913</v>
+        <v>0.0535242422243245</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1494794190383075</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.781918824564741</v>
       </c>
       <c r="P4">
-        <v>0.8014277579274989</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.177530211546269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7899411744079359</v>
+      </c>
+      <c r="S4">
+        <v>1.136486528942342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6631387704642862</v>
+        <v>0.6507999841730907</v>
       </c>
       <c r="C5">
-        <v>0.1393432480125369</v>
+        <v>0.1414509188319641</v>
       </c>
       <c r="D5">
-        <v>0.2003753143313958</v>
+        <v>0.2032592183727786</v>
       </c>
       <c r="E5">
-        <v>0.1468854759247122</v>
+        <v>0.1476463965474437</v>
       </c>
       <c r="F5">
-        <v>0.5556877625845118</v>
+        <v>0.5417623010239723</v>
       </c>
       <c r="G5">
-        <v>0.29432108603622</v>
+        <v>0.2669587000541824</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0006983065856611681</v>
+        <v>0.000653412554025401</v>
       </c>
       <c r="J5">
-        <v>0.2876398521473718</v>
+        <v>0.3088704416057624</v>
       </c>
       <c r="K5">
-        <v>0.2577673942238707</v>
+        <v>0.2424918047607409</v>
       </c>
       <c r="L5">
-        <v>0.1452406767629526</v>
+        <v>0.1417679072984068</v>
       </c>
       <c r="M5">
-        <v>0.7482627286387071</v>
+        <v>0.05369741125822891</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1448858162558935</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7503419482770397</v>
       </c>
       <c r="P5">
-        <v>0.8078329818290051</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.173621900290669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7954350553355951</v>
+      </c>
+      <c r="S5">
+        <v>1.133600754000867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.657522974287815</v>
+        <v>0.6454584894633228</v>
       </c>
       <c r="C6">
-        <v>0.1390184817412745</v>
+        <v>0.1409887267787155</v>
       </c>
       <c r="D6">
-        <v>0.1993197913900389</v>
+        <v>0.2021714755664732</v>
       </c>
       <c r="E6">
-        <v>0.146099666321895</v>
+        <v>0.1468527490871132</v>
       </c>
       <c r="F6">
-        <v>0.5543332451448535</v>
+        <v>0.5404901144044629</v>
       </c>
       <c r="G6">
-        <v>0.2936694605682817</v>
+        <v>0.2664175932039043</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0008150286861550171</v>
+        <v>0.0007814337242351144</v>
       </c>
       <c r="J6">
-        <v>0.2875157942377982</v>
+        <v>0.3086529041537176</v>
       </c>
       <c r="K6">
-        <v>0.2576450986756651</v>
+        <v>0.2424038696534758</v>
       </c>
       <c r="L6">
-        <v>0.1444597685800204</v>
+        <v>0.1418317588039866</v>
       </c>
       <c r="M6">
-        <v>0.7430753756388668</v>
+        <v>0.05368196363740019</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1441091754032016</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7451469014272192</v>
       </c>
       <c r="P6">
-        <v>0.8090175787100584</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.171967351110283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7964861608155509</v>
+      </c>
+      <c r="S6">
+        <v>1.132123789716388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6898477213078422</v>
+        <v>0.6755592004382436</v>
       </c>
       <c r="C7">
-        <v>0.1451918731644923</v>
+        <v>0.1480862503264291</v>
       </c>
       <c r="D7">
-        <v>0.2076323941904832</v>
+        <v>0.2109252007568188</v>
       </c>
       <c r="E7">
-        <v>0.1518025447740428</v>
+        <v>0.1526613135178287</v>
       </c>
       <c r="F7">
-        <v>0.5603115363434128</v>
+        <v>0.5452061963615407</v>
       </c>
       <c r="G7">
-        <v>0.2954492194224656</v>
+        <v>0.2698195169013644</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00077973397196196</v>
+        <v>0.0008074915240081637</v>
       </c>
       <c r="J7">
-        <v>0.2869625367240545</v>
+        <v>0.3053566395631506</v>
       </c>
       <c r="K7">
-        <v>0.2562397619462562</v>
+        <v>0.2406082938132172</v>
       </c>
       <c r="L7">
-        <v>0.1497546333526429</v>
+        <v>0.1400682312431041</v>
       </c>
       <c r="M7">
-        <v>0.7794985714449183</v>
+        <v>0.05332290902854186</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1493439827695369</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7809369179372538</v>
       </c>
       <c r="P7">
-        <v>0.8018260968629178</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.174671392464347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7905598363154098</v>
+      </c>
+      <c r="S7">
+        <v>1.131931051609357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8337034884679895</v>
+        <v>0.8099511799505308</v>
       </c>
       <c r="C8">
-        <v>0.1715528049398927</v>
+        <v>0.1792596102526147</v>
       </c>
       <c r="D8">
-        <v>0.2444250171136702</v>
+        <v>0.2492905313480094</v>
       </c>
       <c r="E8">
-        <v>0.1772348302200513</v>
+        <v>0.1784643572316185</v>
       </c>
       <c r="F8">
-        <v>0.5892761393781569</v>
+        <v>0.5698047119945713</v>
       </c>
       <c r="G8">
-        <v>0.3050648823659188</v>
+        <v>0.2818155222532894</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0007140355396249021</v>
+        <v>0.0009183567907360413</v>
       </c>
       <c r="J8">
-        <v>0.2855987267028297</v>
+        <v>0.2987424770951463</v>
       </c>
       <c r="K8">
-        <v>0.2512803262904306</v>
+        <v>0.2342513159982254</v>
       </c>
       <c r="L8">
-        <v>0.1735356693674035</v>
+        <v>0.1333038539391715</v>
       </c>
       <c r="M8">
-        <v>0.9398919584291434</v>
+        <v>0.05302558835732718</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.172902493636883</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9399130055284104</v>
       </c>
       <c r="P8">
-        <v>0.7713561973001397</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.192578790501173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7653500698387887</v>
+      </c>
+      <c r="S8">
+        <v>1.140067844881457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.116900547668052</v>
+        <v>1.074488365724221</v>
       </c>
       <c r="C9">
-        <v>0.2223117362760405</v>
+        <v>0.2411992487601253</v>
       </c>
       <c r="D9">
-        <v>0.3176956955641401</v>
+        <v>0.3250672030118267</v>
       </c>
       <c r="E9">
-        <v>0.2283797082653294</v>
+        <v>0.2301735320494274</v>
       </c>
       <c r="F9">
-        <v>0.6540696265826824</v>
+        <v>0.6275937511417311</v>
       </c>
       <c r="G9">
-        <v>0.3291347670421274</v>
+        <v>0.3020580461301421</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001515025921461799</v>
+        <v>0.0017981955558799</v>
       </c>
       <c r="J9">
-        <v>0.2861806706701913</v>
+        <v>0.2993613022926169</v>
       </c>
       <c r="K9">
-        <v>0.2449476276128415</v>
+        <v>0.2253769910403314</v>
       </c>
       <c r="L9">
-        <v>0.2218110128560653</v>
+        <v>0.1222721388696275</v>
       </c>
       <c r="M9">
-        <v>1.253829569588248</v>
+        <v>0.05692021763232802</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2207752468535773</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.253353546430333</v>
       </c>
       <c r="P9">
-        <v>0.7168338009968025</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.245505566684372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7204636358874161</v>
+      </c>
+      <c r="S9">
+        <v>1.177625103616535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.32239203712416</v>
+        <v>1.2633612707738</v>
       </c>
       <c r="C10">
-        <v>0.2612608606438158</v>
+        <v>0.2872872756516784</v>
       </c>
       <c r="D10">
-        <v>0.3729243352287313</v>
+        <v>0.383450798176483</v>
       </c>
       <c r="E10">
-        <v>0.2670428193646046</v>
+        <v>0.2695403235123734</v>
       </c>
       <c r="F10">
-        <v>0.7053254835782212</v>
+        <v>0.6689881578487515</v>
       </c>
       <c r="G10">
-        <v>0.3489393196719774</v>
+        <v>0.3332271221413663</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.003118980846998021</v>
+        <v>0.003326916421312553</v>
       </c>
       <c r="J10">
-        <v>0.2880208392355854</v>
+        <v>0.282631276211518</v>
       </c>
       <c r="K10">
-        <v>0.241363954846797</v>
+        <v>0.2182917040017074</v>
       </c>
       <c r="L10">
-        <v>0.2584265991296348</v>
+        <v>0.1143557975257323</v>
       </c>
       <c r="M10">
-        <v>1.484746829466189</v>
+        <v>0.06157051814537695</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2568602041182828</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.4794876464575</v>
       </c>
       <c r="P10">
-        <v>0.6808571476955123</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.291806991970901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.6931405843601368</v>
+      </c>
+      <c r="S10">
+        <v>1.200958257227427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.412036654367654</v>
+        <v>1.341639580828001</v>
       </c>
       <c r="C11">
-        <v>0.2813556480462154</v>
+        <v>0.307874584361997</v>
       </c>
       <c r="D11">
-        <v>0.3988783895084111</v>
+        <v>0.4130467568695622</v>
       </c>
       <c r="E11">
-        <v>0.2850256392792758</v>
+        <v>0.2883542952794826</v>
       </c>
       <c r="F11">
-        <v>0.7278846579270279</v>
+        <v>0.6797277278426961</v>
       </c>
       <c r="G11">
-        <v>0.3571598286777942</v>
+        <v>0.3729850107379491</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.004433702558127806</v>
+        <v>0.004622857501401789</v>
       </c>
       <c r="J11">
-        <v>0.288521684165957</v>
+        <v>0.2479040996032325</v>
       </c>
       <c r="K11">
-        <v>0.2389340993981328</v>
+        <v>0.2120624473775194</v>
       </c>
       <c r="L11">
-        <v>0.2753133197464592</v>
+        <v>0.109882818952169</v>
       </c>
       <c r="M11">
-        <v>1.590154154827616</v>
+        <v>0.06278642579390237</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2731687106882816</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.575158031607799</v>
       </c>
       <c r="P11">
-        <v>0.6661451844973243</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.310485540606606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.6853602156919365</v>
+      </c>
+      <c r="S11">
+        <v>1.191290691024989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.447822152474657</v>
+        <v>1.372574274612077</v>
       </c>
       <c r="C12">
-        <v>0.2878999210965247</v>
+        <v>0.3141298988005019</v>
       </c>
       <c r="D12">
-        <v>0.4084885069211737</v>
+        <v>0.4243232743708347</v>
       </c>
       <c r="E12">
-        <v>0.2918143399252315</v>
+        <v>0.2955240239420291</v>
       </c>
       <c r="F12">
-        <v>0.7375387014133139</v>
+        <v>0.6839242311978779</v>
       </c>
       <c r="G12">
-        <v>0.3611257412818674</v>
+        <v>0.3929351884535635</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.004777384439950794</v>
+        <v>0.004905643818317706</v>
       </c>
       <c r="J12">
-        <v>0.2891556219106377</v>
+        <v>0.2336168302633723</v>
       </c>
       <c r="K12">
-        <v>0.2386710698776611</v>
+        <v>0.2100102220688385</v>
       </c>
       <c r="L12">
-        <v>0.2817964972164475</v>
+        <v>0.108340540507692</v>
       </c>
       <c r="M12">
-        <v>1.62998463960497</v>
+        <v>0.06340378063907792</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2793878664130034</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.610311097395964</v>
       </c>
       <c r="P12">
-        <v>0.6603283311561903</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.320296419343066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.682490163640729</v>
+      </c>
+      <c r="S12">
+        <v>1.187945740155598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.440495613893347</v>
+        <v>1.366307460347315</v>
       </c>
       <c r="C13">
-        <v>0.2862639540536804</v>
+        <v>0.3125548340626665</v>
       </c>
       <c r="D13">
-        <v>0.4063622659203929</v>
+        <v>0.421823221678153</v>
       </c>
       <c r="E13">
-        <v>0.2903373715654851</v>
+        <v>0.2939617152248886</v>
       </c>
       <c r="F13">
-        <v>0.7356438000401369</v>
+        <v>0.6832412739203306</v>
       </c>
       <c r="G13">
-        <v>0.3604189850056656</v>
+        <v>0.3886007563511527</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.004661021217498451</v>
+        <v>0.004793502500847424</v>
       </c>
       <c r="J13">
-        <v>0.2890938591513645</v>
+        <v>0.2367741365186404</v>
       </c>
       <c r="K13">
-        <v>0.2388468775100989</v>
+        <v>0.210570026642003</v>
       </c>
       <c r="L13">
-        <v>0.2804061248260723</v>
+        <v>0.1087095595276892</v>
       </c>
       <c r="M13">
-        <v>1.621382117324316</v>
+        <v>0.0633203811903158</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2780564124506242</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.602760613890439</v>
       </c>
       <c r="P13">
-        <v>0.6614956620637784</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.318652544332053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.6829792806105885</v>
+      </c>
+      <c r="S13">
+        <v>1.189208718825057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.415142308994348</v>
+        <v>1.344353213025499</v>
       </c>
       <c r="C14">
-        <v>0.2817977857902321</v>
+        <v>0.3082926239405879</v>
       </c>
       <c r="D14">
-        <v>0.3996449517787823</v>
+        <v>0.4139437987297754</v>
       </c>
       <c r="E14">
-        <v>0.2855777718832542</v>
+        <v>0.2889363146276196</v>
       </c>
       <c r="F14">
-        <v>0.7287570088430897</v>
+        <v>0.6801678727894682</v>
       </c>
       <c r="G14">
-        <v>0.3575486100083936</v>
+        <v>0.3746056354523546</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.004443639018846035</v>
+        <v>0.004623973114769697</v>
       </c>
       <c r="J14">
-        <v>0.2886055489848474</v>
+        <v>0.2467687805092211</v>
       </c>
       <c r="K14">
-        <v>0.2389630376498957</v>
+        <v>0.2119442266369376</v>
       </c>
       <c r="L14">
-        <v>0.2758491437745505</v>
+        <v>0.1097719787206515</v>
       </c>
       <c r="M14">
-        <v>1.593420662427633</v>
+        <v>0.06285822570958643</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.273683736193945</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.578059748949244</v>
       </c>
       <c r="P14">
-        <v>0.6656303680162559</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.311491631362259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.6850694323422317</v>
+      </c>
+      <c r="S14">
+        <v>1.191249131361005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.398863055688366</v>
+        <v>1.330103486584903</v>
       </c>
       <c r="C15">
-        <v>0.2795101571121279</v>
+        <v>0.3061179795112992</v>
       </c>
       <c r="D15">
-        <v>0.3956438858958791</v>
+        <v>0.4092725106685009</v>
       </c>
       <c r="E15">
-        <v>0.2826935827741224</v>
+        <v>0.2858986042741662</v>
       </c>
       <c r="F15">
-        <v>0.7241826254299895</v>
+        <v>0.6778145558741926</v>
       </c>
       <c r="G15">
-        <v>0.3555044149102997</v>
+        <v>0.3662909162288912</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.004399657502831111</v>
+        <v>0.004627062948008742</v>
       </c>
       <c r="J15">
-        <v>0.2881616223212404</v>
+        <v>0.2526488179486464</v>
       </c>
       <c r="K15">
-        <v>0.2388017040499157</v>
+        <v>0.212541172445853</v>
       </c>
       <c r="L15">
-        <v>0.2730483515661462</v>
+        <v>0.1103455428923041</v>
       </c>
       <c r="M15">
-        <v>1.576342732742063</v>
+        <v>0.06247565941221467</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2709898557188666</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.562849108862252</v>
       </c>
       <c r="P15">
-        <v>0.6683355161845874</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.306195562425387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.6866212664451012</v>
+      </c>
+      <c r="S15">
+        <v>1.191337765738453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.310263140503309</v>
+        <v>1.252022064667273</v>
       </c>
       <c r="C16">
-        <v>0.2636618535284327</v>
+        <v>0.2899367387409768</v>
       </c>
       <c r="D16">
-        <v>0.3721334972054819</v>
+        <v>0.3824796808967221</v>
       </c>
       <c r="E16">
-        <v>0.2660880751883994</v>
+        <v>0.268542959810901</v>
       </c>
       <c r="F16">
-        <v>0.7006934767221651</v>
+        <v>0.6650786913748874</v>
       </c>
       <c r="G16">
-        <v>0.3458929152471697</v>
+        <v>0.328620671501092</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.00369795547999896</v>
+        <v>0.004054273218579318</v>
       </c>
       <c r="J16">
-        <v>0.2867078877799685</v>
+        <v>0.2834635899631763</v>
       </c>
       <c r="K16">
-        <v>0.2395061569953434</v>
+        <v>0.2168342882971253</v>
       </c>
       <c r="L16">
-        <v>0.2571956685386567</v>
+        <v>0.1139931498569702</v>
       </c>
       <c r="M16">
-        <v>1.478243966560456</v>
+        <v>0.06073662690463699</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2556609904805782</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.473497419233951</v>
       </c>
       <c r="P16">
-        <v>0.6831086026956221</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.282585277059894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.695302184523463</v>
+      </c>
+      <c r="S16">
+        <v>1.193635835661723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.255869104643921</v>
+        <v>1.203216314890994</v>
       </c>
       <c r="C17">
-        <v>0.253997329082793</v>
+        <v>0.2794260484306648</v>
       </c>
       <c r="D17">
-        <v>0.3577925773330861</v>
+        <v>0.3666115376722132</v>
       </c>
       <c r="E17">
-        <v>0.2559731053742169</v>
+        <v>0.2580798111811546</v>
       </c>
       <c r="F17">
-        <v>0.6865695824157356</v>
+        <v>0.6559278201762311</v>
       </c>
       <c r="G17">
-        <v>0.3401738440145863</v>
+        <v>0.3118547721216345</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.003333689356087355</v>
+        <v>0.003752079286689636</v>
       </c>
       <c r="J17">
-        <v>0.2859225364882079</v>
+        <v>0.2977771490607495</v>
       </c>
       <c r="K17">
-        <v>0.2400347387292818</v>
+        <v>0.2190568539207263</v>
       </c>
       <c r="L17">
-        <v>0.2475527075675501</v>
+        <v>0.1161394025514948</v>
       </c>
       <c r="M17">
-        <v>1.418105663905777</v>
+        <v>0.0595811592487614</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2462639715511159</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.417058918640407</v>
       </c>
       <c r="P17">
-        <v>0.6923973832321799</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.268697877793926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7015039202668234</v>
+      </c>
+      <c r="S17">
+        <v>1.19167972466596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.226456088526191</v>
+        <v>1.176684381237664</v>
       </c>
       <c r="C18">
-        <v>0.2473329570283767</v>
+        <v>0.2719467284458119</v>
       </c>
       <c r="D18">
-        <v>0.3493006646017562</v>
+        <v>0.3574046675304032</v>
       </c>
       <c r="E18">
-        <v>0.2501153592096159</v>
+        <v>0.2520599909061403</v>
       </c>
       <c r="F18">
-        <v>0.6795094678791429</v>
+        <v>0.6511402890399083</v>
       </c>
       <c r="G18">
-        <v>0.3377101510587366</v>
+        <v>0.3050185976696937</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.002909191872110917</v>
+        <v>0.003305367637544521</v>
       </c>
       <c r="J18">
-        <v>0.2858992436683252</v>
+        <v>0.3042915054974813</v>
       </c>
       <c r="K18">
-        <v>0.240984886498758</v>
+        <v>0.2207504501664737</v>
       </c>
       <c r="L18">
-        <v>0.2420754441161819</v>
+        <v>0.1175450523712804</v>
       </c>
       <c r="M18">
-        <v>1.383412181486136</v>
+        <v>0.05911026970268729</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2409020589724378</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.383908013330171</v>
       </c>
       <c r="P18">
-        <v>0.6974424670851995</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.263357432939301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.704908299296541</v>
+      </c>
+      <c r="S18">
+        <v>1.191716945483563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.215036873112496</v>
+        <v>1.166214421267171</v>
       </c>
       <c r="C19">
-        <v>0.2459476131494682</v>
+        <v>0.2703269667392334</v>
       </c>
       <c r="D19">
-        <v>0.3466401598819573</v>
+        <v>0.3545339438537241</v>
       </c>
       <c r="E19">
-        <v>0.248186468814346</v>
+        <v>0.2500833065445676</v>
       </c>
       <c r="F19">
-        <v>0.6763941017572819</v>
+        <v>0.648713561609938</v>
       </c>
       <c r="G19">
-        <v>0.3362980835874438</v>
+        <v>0.3024654344827127</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.002949911765339763</v>
+        <v>0.003377257191816696</v>
       </c>
       <c r="J19">
-        <v>0.2855968000969824</v>
+        <v>0.305821451699849</v>
       </c>
       <c r="K19">
-        <v>0.2408405607289907</v>
+        <v>0.2208666701280215</v>
       </c>
       <c r="L19">
-        <v>0.2401946349953619</v>
+        <v>0.117853387419828</v>
       </c>
       <c r="M19">
-        <v>1.371757346552755</v>
+        <v>0.05877873576274339</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2390559294635182</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.372680883087668</v>
       </c>
       <c r="P19">
-        <v>0.6994568234012206</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.259706988905123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7064646140800335</v>
+      </c>
+      <c r="S19">
+        <v>1.189719799427621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.26180950752962</v>
+        <v>1.208590912481725</v>
       </c>
       <c r="C20">
-        <v>0.2549355537540237</v>
+        <v>0.2804699268827164</v>
       </c>
       <c r="D20">
-        <v>0.3592948185772968</v>
+        <v>0.3682582803861578</v>
       </c>
       <c r="E20">
-        <v>0.2570421132751548</v>
+        <v>0.2591817402786276</v>
       </c>
       <c r="F20">
-        <v>0.6881379885752068</v>
+        <v>0.657024835562801</v>
       </c>
       <c r="G20">
-        <v>0.3408359301336645</v>
+        <v>0.3134790499531519</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.003351073356139267</v>
+        <v>0.003759284571494881</v>
       </c>
       <c r="J20">
-        <v>0.2860327665507612</v>
+        <v>0.2964923036020295</v>
       </c>
       <c r="K20">
-        <v>0.2400228046254256</v>
+        <v>0.2188792548859269</v>
       </c>
       <c r="L20">
-        <v>0.248579378043047</v>
+        <v>0.115930750815064</v>
       </c>
       <c r="M20">
-        <v>1.424496965035217</v>
+        <v>0.05972420773327869</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2472672068985702</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.423117100995427</v>
       </c>
       <c r="P20">
-        <v>0.6913700405704049</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.270345024325692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7007757257010923</v>
+      </c>
+      <c r="S20">
+        <v>1.192195617938225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.420466889420311</v>
+        <v>1.34744790768886</v>
       </c>
       <c r="C21">
-        <v>0.284368981288992</v>
+        <v>0.3098397538304596</v>
       </c>
       <c r="D21">
-        <v>0.4019206256329824</v>
+        <v>0.4173297088485413</v>
       </c>
       <c r="E21">
-        <v>0.2870470415750077</v>
+        <v>0.2906637122057774</v>
       </c>
       <c r="F21">
-        <v>0.7297014742112182</v>
+        <v>0.6775111102203226</v>
       </c>
       <c r="G21">
-        <v>0.3575378902983601</v>
+        <v>0.3873159696690465</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.004747389128850976</v>
+        <v>0.00495899240607578</v>
       </c>
       <c r="J21">
-        <v>0.2883132253834049</v>
+        <v>0.2352251335992932</v>
       </c>
       <c r="K21">
-        <v>0.2382469122186919</v>
+        <v>0.2101570567606181</v>
       </c>
       <c r="L21">
-        <v>0.2771407716076766</v>
+        <v>0.1089981064166761</v>
       </c>
       <c r="M21">
-        <v>1.601761279606535</v>
+        <v>0.06239926742969004</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2748095674539428</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.582837740952954</v>
       </c>
       <c r="P21">
-        <v>0.6648568077934094</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.310872268397503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.6859955816319854</v>
+      </c>
+      <c r="S21">
+        <v>1.18192348536823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.526735200474747</v>
+        <v>1.43984703801371</v>
       </c>
       <c r="C22">
-        <v>0.3022098693928257</v>
+        <v>0.3270912408730169</v>
       </c>
       <c r="D22">
-        <v>0.4296783796692694</v>
+        <v>0.4497397798647285</v>
       </c>
       <c r="E22">
-        <v>0.3068159778809019</v>
+        <v>0.3114919714686195</v>
       </c>
       <c r="F22">
-        <v>0.7592094392243069</v>
+        <v>0.6917875679361458</v>
       </c>
       <c r="G22">
-        <v>0.3701427720861545</v>
+        <v>0.4456094253945082</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.005574901146737865</v>
+        <v>0.005542620453970137</v>
       </c>
       <c r="J22">
-        <v>0.2907155512530721</v>
+        <v>0.2022655274344558</v>
       </c>
       <c r="K22">
-        <v>0.2382769934679203</v>
+        <v>0.2051306831731772</v>
       </c>
       <c r="L22">
-        <v>0.2961518541393247</v>
+        <v>0.1049147414040057</v>
       </c>
       <c r="M22">
-        <v>1.717620818450285</v>
+        <v>0.06465214000034081</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2930769712505708</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.68579995787681</v>
       </c>
       <c r="P22">
-        <v>0.6477257070321798</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.342843460890293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.6771873849517647</v>
+      </c>
+      <c r="S22">
+        <v>1.177238739347203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.472590030950784</v>
+        <v>1.394024325471577</v>
       </c>
       <c r="C23">
-        <v>0.2911496366735236</v>
+        <v>0.317007219970435</v>
       </c>
       <c r="D23">
-        <v>0.4144695656212036</v>
+        <v>0.4314591266194441</v>
       </c>
       <c r="E23">
-        <v>0.2961533701360892</v>
+        <v>0.3001277107164455</v>
       </c>
       <c r="F23">
-        <v>0.7446617641725197</v>
+        <v>0.6872148593142953</v>
       </c>
       <c r="G23">
-        <v>0.3643834860876751</v>
+        <v>0.4078330489766131</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.004839024649154311</v>
+        <v>0.004885045560570234</v>
       </c>
       <c r="J23">
-        <v>0.2899225475852063</v>
+        <v>0.2244796406527882</v>
       </c>
       <c r="K23">
-        <v>0.2390509918109451</v>
+        <v>0.2090846031388907</v>
       </c>
       <c r="L23">
-        <v>0.2860324773256053</v>
+        <v>0.1074862968364467</v>
       </c>
       <c r="M23">
-        <v>1.65561155535417</v>
+        <v>0.06398607817046553</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2834402780624146</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.632632587993839</v>
       </c>
       <c r="P23">
-        <v>0.6562590652491345</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.328857455113337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.680337709120181</v>
+      </c>
+      <c r="S23">
+        <v>1.187205408055135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.263129088988308</v>
+        <v>1.210098582501729</v>
       </c>
       <c r="C24">
-        <v>0.2521328586957168</v>
+        <v>0.277403790958715</v>
       </c>
       <c r="D24">
-        <v>0.3580397397872304</v>
+        <v>0.3669263558412865</v>
       </c>
       <c r="E24">
-        <v>0.2564210345198603</v>
+        <v>0.2585439971008867</v>
       </c>
       <c r="F24">
-        <v>0.6894654029232044</v>
+        <v>0.6585244885821453</v>
       </c>
       <c r="G24">
-        <v>0.3421520750438134</v>
+        <v>0.3143229911468879</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.002879104072650129</v>
+        <v>0.003189251921540404</v>
       </c>
       <c r="J24">
-        <v>0.2868087790946205</v>
+        <v>0.2978555609173554</v>
       </c>
       <c r="K24">
-        <v>0.2413240837557353</v>
+        <v>0.2201439022692497</v>
       </c>
       <c r="L24">
-        <v>0.2482006553836555</v>
+        <v>0.1164580260049881</v>
       </c>
       <c r="M24">
-        <v>1.421361618355519</v>
+        <v>0.06012816812373067</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2468992314705645</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.420127612558389</v>
       </c>
       <c r="P24">
-        <v>0.6910285580463693</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.274754939124108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7001188980584558</v>
+      </c>
+      <c r="S24">
+        <v>1.19692379380183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.036701374990542</v>
+        <v>1.000033276178499</v>
       </c>
       <c r="C25">
-        <v>0.2106983016584252</v>
+        <v>0.2270630302197532</v>
       </c>
       <c r="D25">
-        <v>0.2982301803399423</v>
+        <v>0.3046245318701466</v>
       </c>
       <c r="E25">
-        <v>0.2145078459871783</v>
+        <v>0.2160802332446465</v>
       </c>
       <c r="F25">
-        <v>0.6338625229609178</v>
+        <v>0.6104137259547144</v>
       </c>
       <c r="G25">
-        <v>0.3206246641494346</v>
+        <v>0.2912555790170686</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001543756787615536</v>
+        <v>0.001914653831278201</v>
       </c>
       <c r="J25">
-        <v>0.2849390381220971</v>
+        <v>0.302815503310633</v>
       </c>
       <c r="K25">
-        <v>0.2451488581026631</v>
+        <v>0.2267432704389094</v>
       </c>
       <c r="L25">
-        <v>0.2084802700020703</v>
+        <v>0.1247682863551187</v>
       </c>
       <c r="M25">
-        <v>1.169138304211145</v>
+        <v>0.05514388022535677</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2076047273599642</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.16984507086039</v>
       </c>
       <c r="P25">
-        <v>0.7316417531782484</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.224686093635043</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.732483854329967</v>
+      </c>
+      <c r="S25">
+        <v>1.163862534535156</v>
       </c>
     </row>
   </sheetData>
